--- a/21211A0478_and_476_DL.xlsx
+++ b/21211A0478_and_476_DL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b6e59215022c1e2b/SHARANYA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{30BFBCA6-CF4C-41F5-9819-30E7A7372DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60DC0EE2-4361-4EB4-8CE4-D6D043457A00}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{30BFBCA6-CF4C-41F5-9819-30E7A7372DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2BC0E89-685B-4048-8D10-DA238EE6FF71}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{95E8B310-61E5-46AE-8F00-BD7487A7D03F}"/>
   </bookViews>
@@ -245,6 +245,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>loss</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -598,6 +623,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>loss</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -943,6 +993,672 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.60554855643044614"/>
+          <c:y val="0.90277777777777779"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$W$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AF$3:$AF$14</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Epoch</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$W$3:$W$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75288259175919192</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9790531566482392</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50483350623707512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8456274475819825</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50320006218856972</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8232022517373383</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.50320006240757953</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.823202265751791</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.50320006240757797</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.8232022657517377</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8555-4FD1-B764-B8DE2BFE7419}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1656763920"/>
+        <c:axId val="1649983840"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="1656763920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1649983840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1649983840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1656763920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AF$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$W$26:$W$36</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.752882592</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.841395964</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.505030404</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.850322011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.773683505</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.794587764</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.503220469</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.823752805</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.799122482</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.962857414</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AF$26:$AF$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EB41-4549-A99E-17D368B9BE4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1656766320"/>
+        <c:axId val="1782174112"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="1656766320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1782174112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1782174112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1656766320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1023,6 +1739,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2036,6 +2832,1048 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2065,10 +3903,10 @@
       <xdr:rowOff>20535</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>310743</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>189148</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>553936</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2096,15 +3934,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>253999</xdr:colOff>
+      <xdr:colOff>321551</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>128080</xdr:rowOff>
+      <xdr:rowOff>128081</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>570148</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>34046</xdr:rowOff>
+      <xdr:colOff>567445</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>162128</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2124,6 +3962,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>254001</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19997</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>570149</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>115112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CFC4775-2240-C3B3-7B40-3A6D1B62DCB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>335065</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>168612</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>43235</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>74578</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21F03B58-63B8-FD47-0877-6023A450B03D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2435,8 +4345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842A6E18-9E85-46AF-AC7C-71726D28BCB1}">
   <dimension ref="A1:AL36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="47" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="47" workbookViewId="0">
+      <selection activeCell="AS19" sqref="AS19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/21211A0478_and_476_DL.xlsx
+++ b/21211A0478_and_476_DL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b6e59215022c1e2b/SHARANYA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sharanya\OneDrive\SHARANYA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{30BFBCA6-CF4C-41F5-9819-30E7A7372DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2BC0E89-685B-4048-8D10-DA238EE6FF71}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1343808-7458-462B-8851-3EA20244CEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{95E8B310-61E5-46AE-8F00-BD7487A7D03F}"/>
   </bookViews>
@@ -265,7 +265,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-IN"/>
-              <a:t>loss</a:t>
+              <a:t>21211A0478</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -643,7 +643,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>loss</a:t>
+              <a:t>21211A0476</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1659,6 +1659,1090 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>21211A0478</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$W$2:$W$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>E</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$W$4:$W$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.75288259175919192</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9790531566482392</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50483350623707512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8456274475819825</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50320006218856972</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8232022517373383</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.50320006240757953</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.823202265751791</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.50320006240757797</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8232022657517377</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-676F-4960-8086-E4804B89D6D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AF$2:$AF$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>Epoch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AF$4:$AF$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-676F-4960-8086-E4804B89D6D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                  <a:alpha val="33000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="1594033360"/>
+        <c:axId val="1587137984"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1594033360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1587137984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1587137984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1594033360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>21211A0476</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$W$25:$W$26</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>E</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$W$27:$W$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.75288259175919192</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8413959635829693</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50503040427921231</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8503220107415994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77368350493009252</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.794587763886426</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.50322046899349704</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8237528052157854</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79912248201706981</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.9628574136260282</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-98B2-4696-942B-07ADB69525E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AF$25:$AF$26</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>Epoch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AF$27:$AF$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-98B2-4696-942B-07ADB69525E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                  <a:alpha val="33000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="1594046320"/>
+        <c:axId val="1807315088"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1594046320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1807315088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1807315088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1594046320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1819,6 +2903,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3889,6 +5053,1082 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+            <a:alpha val="33000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+            <a:alpha val="33000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3969,16 +6209,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>254001</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19997</xdr:rowOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>308042</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>162128</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>570149</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>115112</xdr:rowOff>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>351277</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>27022</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4005,16 +6245,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>335065</xdr:colOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>162128</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>168612</xdr:rowOff>
+      <xdr:rowOff>13510</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>43235</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>74578</xdr:rowOff>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>405319</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>54042</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4039,11 +6279,79 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>78363</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114570</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>432341</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>94575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A62D63D-6E3D-9C4B-BE7E-AC8D91BBEB81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>213469</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>135107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>270213</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>88090</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC153CC6-7A39-8750-7289-3953F8C73744}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4345,8 +6653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842A6E18-9E85-46AF-AC7C-71726D28BCB1}">
   <dimension ref="A1:AL36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="47" workbookViewId="0">
-      <selection activeCell="AS19" sqref="AS19"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="47" workbookViewId="0">
+      <selection activeCell="AX41" sqref="AX41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
